--- a/sic/marco.xlsx
+++ b/sic/marco.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanMiguel\Documents\GitHub\gmd\sic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="9525"/>
+    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="9528"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,9 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>marco</t>
+  </si>
+  <si>
+    <t>benito malo</t>
   </si>
 </sst>
 </file>
@@ -66,6 +74,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -113,7 +124,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +159,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,15 +368,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -379,7 +395,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -391,7 +407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sic/marco.xlsx
+++ b/sic/marco.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanMiguel\Documents\GitHub\gmd\sic\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="48" windowWidth="20112" windowHeight="9528"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>marco</t>
   </si>
   <si>
     <t>benito malo</t>
+  </si>
+  <si>
+    <t>Juan carbajal… mmmmfff</t>
   </si>
 </sst>
 </file>
@@ -124,7 +122,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -159,7 +157,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,6 +382,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -395,7 +398,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -407,7 +410,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sic/marco.xlsx
+++ b/sic/marco.xlsx
@@ -21,12 +21,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>marco</t>
   </si>
   <si>
     <t>benito malo</t>
+  </si>
+  <si>
+    <t>una modificación</t>
+  </si>
+  <si>
+    <t>jejeje</t>
+  </si>
+  <si>
+    <t>1+1</t>
   </si>
 </sst>
 </file>
@@ -368,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,6 +393,21 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
